--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p2-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p2-faa-0ms.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\KLDivergenceTest\FeedbackLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E7E12-EA39-4A5D-A08D-0E1414A9D4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81651EAE-C7E6-4D7D-BA8F-22BC507A54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet(2)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="84">
   <si>
     <t>proposition</t>
   </si>
@@ -301,6 +302,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -333,7 +335,7 @@
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,7 +344,7 @@
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1906,8 +1908,8 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3283,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CC581C-E82D-4A99-ADEB-D42942F39E13}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3295,7 +3297,7 @@
     <col min="6" max="7" width="17.28515625" style="6"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -3323,8 +3325,8 @@
       <c r="H1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3343,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>2.0763888888888887E-2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -3351,8 +3353,8 @@
       <c r="H2" s="4">
         <v>0.25</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3371,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>2.0995370370370369E-2</v>
+        <v>2.3148148148148182E-4</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>8</v>
@@ -3379,8 +3381,8 @@
       <c r="H3" s="4">
         <v>0.25</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3399,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>2.119212962962963E-2</v>
+        <v>4.2824074074074292E-4</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -3407,8 +3409,8 @@
       <c r="H4" s="4">
         <v>0.25</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3427,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>2.162037037037037E-2</v>
+        <v>8.5648148148148237E-4</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
@@ -3435,8 +3437,8 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3455,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>2.2141203703703705E-2</v>
+        <v>1.3773148148148173E-3</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
@@ -3463,8 +3465,8 @@
       <c r="H6" s="4">
         <v>0.25</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3483,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>2.2233796296296297E-2</v>
+        <v>1.4699074074074094E-3</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>8</v>
@@ -3491,8 +3493,8 @@
       <c r="H7" s="4">
         <v>0.25</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3511,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>2.2395833333333334E-2</v>
+        <v>1.6319444444444463E-3</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>8</v>
@@ -3519,8 +3521,8 @@
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3539,7 +3541,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="5">
-        <v>2.2708333333333334E-2</v>
+        <v>1.9444444444444466E-3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -3547,8 +3549,8 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -3567,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>2.3078703703703702E-2</v>
+        <v>2.3148148148148147E-3</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>8</v>
@@ -3575,8 +3577,8 @@
       <c r="H10" s="4">
         <v>0.25</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3595,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>2.3333333333333334E-2</v>
+        <v>2.5694444444444471E-3</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>8</v>
@@ -3603,8 +3605,8 @@
       <c r="H11" s="4">
         <v>0.25</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3623,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="5">
-        <v>2.3645833333333335E-2</v>
+        <v>2.8819444444444474E-3</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>8</v>
@@ -3631,8 +3633,8 @@
       <c r="H12" s="4">
         <v>0.25</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -3651,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="5">
-        <v>2.4479166666666666E-2</v>
+        <v>3.7152777777777792E-3</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
@@ -3659,8 +3661,8 @@
       <c r="H13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -3679,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="5">
-        <v>2.4594907407407409E-2</v>
+        <v>3.8310185185185218E-3</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>8</v>
@@ -3687,8 +3689,8 @@
       <c r="H14" s="4">
         <v>0.5</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3707,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="5">
-        <v>2.554398148148148E-2</v>
+        <v>4.7800925925925927E-3</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>8</v>
@@ -3715,8 +3717,8 @@
       <c r="H15" s="4">
         <v>0.5</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3735,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="5">
-        <v>2.582175925925926E-2</v>
+        <v>5.0578703703703723E-3</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>8</v>
@@ -3743,8 +3745,8 @@
       <c r="H16" s="4">
         <v>0.5</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -3763,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="5">
-        <v>2.7141203703703702E-2</v>
+        <v>6.3773148148148148E-3</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>8</v>
@@ -3771,8 +3773,8 @@
       <c r="H17" s="4">
         <v>0.25</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -3791,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="5">
-        <v>2.8020833333333332E-2</v>
+        <v>7.2569444444444443E-3</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>8</v>
@@ -3799,8 +3801,8 @@
       <c r="H18" s="4">
         <v>0.25</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -3819,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="5">
-        <v>2.8321759259259258E-2</v>
+        <v>7.557870370370371E-3</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>8</v>
@@ -3827,8 +3829,8 @@
       <c r="H19" s="4">
         <v>0.25</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -3847,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="5">
-        <v>2.837962962962963E-2</v>
+        <v>7.6157407407407424E-3</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>8</v>
@@ -3855,8 +3857,8 @@
       <c r="H20" s="4">
         <v>0.5</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="2"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3875,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="5">
-        <v>2.8761574074074075E-2</v>
+        <v>7.9976851851851875E-3</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>31</v>
@@ -3883,8 +3885,8 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="2"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -3903,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="5">
-        <v>2.8784722222222222E-2</v>
+        <v>8.0208333333333347E-3</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>8</v>
@@ -3911,8 +3913,8 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -3931,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="5">
-        <v>2.9340277777777778E-2</v>
+        <v>8.5763888888888903E-3</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>8</v>
@@ -3939,8 +3941,8 @@
       <c r="H23" s="4">
         <v>0.5</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="2"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -3959,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="5">
-        <v>2.9560185185185186E-2</v>
+        <v>8.7962962962962986E-3</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>8</v>
@@ -3967,8 +3969,8 @@
       <c r="H24" s="4">
         <v>0.5</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3987,7 +3989,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="5">
-        <v>2.9826388888888888E-2</v>
+        <v>9.0625000000000011E-3</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>8</v>
@@ -3995,8 +3997,8 @@
       <c r="H25" s="4">
         <v>0.5</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -4015,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="5">
-        <v>3.170138888888889E-2</v>
+        <v>1.0937500000000003E-2</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>8</v>
@@ -4023,8 +4025,8 @@
       <c r="H26" s="4">
         <v>0.5</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -4043,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="5">
-        <v>3.170138888888889E-2</v>
+        <v>1.0937500000000003E-2</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>38</v>
@@ -4051,8 +4053,8 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -4071,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="5">
-        <v>3.1967592592592596E-2</v>
+        <v>1.1203703703703709E-2</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>8</v>
@@ -4079,8 +4081,8 @@
       <c r="H28" s="4">
         <v>0.25</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="2"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -4099,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="5">
-        <v>3.2395833333333332E-2</v>
+        <v>1.1631944444444445E-2</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>31</v>
@@ -4107,8 +4109,8 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="2"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -4127,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="5">
-        <v>3.2916666666666664E-2</v>
+        <v>1.2152777777777776E-2</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>31</v>
@@ -4135,8 +4137,8 @@
       <c r="H30" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="2"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -4155,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="5">
-        <v>3.3935185185185186E-2</v>
+        <v>1.3171296296296299E-2</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>8</v>
@@ -4163,8 +4165,8 @@
       <c r="H31" s="4">
         <v>0.5</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="2"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -4183,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="5">
-        <v>3.4560185185185187E-2</v>
+        <v>1.37962962962963E-2</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>8</v>
@@ -4191,8 +4193,8 @@
       <c r="H32" s="4">
         <v>0.5</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -4211,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="5">
-        <v>3.5034722222222224E-2</v>
+        <v>1.4270833333333337E-2</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>8</v>
@@ -4219,8 +4221,8 @@
       <c r="H33" s="4">
         <v>0.5</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="2"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -4239,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="5">
-        <v>3.5555555555555556E-2</v>
+        <v>1.4791666666666668E-2</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>8</v>
@@ -4247,8 +4249,8 @@
       <c r="H34" s="4">
         <v>0.5</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="2"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -4267,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="5">
-        <v>3.5960648148148151E-2</v>
+        <v>1.5196759259259264E-2</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>8</v>
@@ -4275,8 +4277,8 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -4295,7 +4297,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="5">
-        <v>3.6041666666666666E-2</v>
+        <v>1.5277777777777779E-2</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>8</v>
@@ -4303,8 +4305,8 @@
       <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="2"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -4323,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="5">
-        <v>3.7164351851851851E-2</v>
+        <v>1.6400462962962964E-2</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>8</v>
@@ -4331,8 +4333,8 @@
       <c r="H37" s="4">
         <v>0.25</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="2"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -4351,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="5">
-        <v>3.72337962962963E-2</v>
+        <v>1.6469907407407412E-2</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>8</v>
@@ -4359,8 +4361,8 @@
       <c r="H38" s="4">
         <v>0.5</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="2"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -4379,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="5">
-        <v>3.7280092592592594E-2</v>
+        <v>1.6516203703703707E-2</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>51</v>
@@ -4387,8 +4389,8 @@
       <c r="H39" s="4">
         <v>0</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="2"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -4407,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="5">
-        <v>3.7523148148148146E-2</v>
+        <v>1.6759259259259258E-2</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>8</v>
@@ -4415,8 +4417,8 @@
       <c r="H40" s="4">
         <v>0.25</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="2"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -4435,7 +4437,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="5">
-        <v>3.8206018518518521E-2</v>
+        <v>1.7442129629629634E-2</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>13</v>
@@ -4443,8 +4445,8 @@
       <c r="H41" s="4">
         <v>1</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="2"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -4463,7 +4465,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="5">
-        <v>3.8599537037037036E-2</v>
+        <v>1.7835648148148149E-2</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>13</v>
@@ -4471,8 +4473,8 @@
       <c r="H42" s="4">
         <v>1</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="2"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -4491,7 +4493,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="5">
-        <v>3.8877314814814816E-2</v>
+        <v>1.8113425925925929E-2</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>8</v>
@@ -4499,8 +4501,8 @@
       <c r="H43" s="4">
         <v>0.25</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="2"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -4519,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="5">
-        <v>3.9548611111111111E-2</v>
+        <v>1.8784722222222223E-2</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>8</v>
@@ -4527,8 +4529,1265 @@
       <c r="H44" s="4">
         <v>0.25</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="2"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578BA753-ECCC-462E-92EB-30D03CB00AD3}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="19.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.3148148148148182E-4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.2824074074074292E-4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8.5648148148148237E-4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.3773148148148173E-3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.4699074074074094E-3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.6319444444444463E-3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.9444444444444466E-3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.3148148148148147E-3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.5694444444444471E-3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.8819444444444474E-3</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3.7152777777777792E-3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.8310185185185218E-3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4.7800925925925927E-3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5">
+        <v>5.0578703703703723E-3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>6.3773148148148148E-3</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7.2569444444444443E-3</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5">
+        <v>7.557870370370371E-3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7.6157407407407424E-3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>7.9976851851851875E-3</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8.0208333333333347E-3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>8.5763888888888903E-3</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>8.7962962962962986E-3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>9.0625000000000011E-3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1.0937500000000003E-2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.0937500000000003E-2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.1203703703703709E-2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.1631944444444445E-2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.2152777777777776E-2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.3171296296296299E-2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.37962962962963E-2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1.4270833333333337E-2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.4791666666666668E-2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1.5196759259259264E-2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.5277777777777779E-2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.6400462962962964E-2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.6469907407407412E-2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.6516203703703707E-2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.6759259259259258E-2</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1.7442129629629634E-2</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1.7835648148148149E-2</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.8113425925925929E-2</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.8784722222222223E-2</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p2-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p2-faa-0ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\KLDivergenceTest\FeedbackLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81651EAE-C7E6-4D7D-BA8F-22BC507A54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5692FF-2BC6-4FB5-A1FC-CA1E2FE3A41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4542,7 +4542,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p2-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p2-faa-0ms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\stationarity_test\KLDivergenceTest\FeedbackLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanadsaha92/Desktop/Research_Experiments/imMens-Interactions/stationarity_test/KLDivergenceTest/FeedbackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5692FF-2BC6-4FB5-A1FC-CA1E2FE3A41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E6D0C-16E7-1C4D-B019-991240236743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -671,15 +671,15 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3"/>
-    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3"/>
+    <col min="10" max="10" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -737,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -844,7 +844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -870,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -974,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -1912,15 +1912,15 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3"/>
-    <col min="11" max="11" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3"/>
+    <col min="11" max="11" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="42" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -3289,18 +3289,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" style="6"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.33203125" style="6"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3692,7 +3692,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -3748,7 +3748,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -4364,7 +4364,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -4392,7 +4392,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -4541,23 +4541,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578BA753-ECCC-462E-92EB-30D03CB00AD3}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="19.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="6"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="6"/>
+    <col min="7" max="7" width="19.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4809,7 +4809,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4921,7 +4921,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -4949,7 +4949,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -5005,12 +5005,12 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>74</v>
@@ -5033,7 +5033,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -5061,7 +5061,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -5089,12 +5089,12 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>70</v>
@@ -5117,7 +5117,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -5173,7 +5173,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -5453,7 +5453,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -5481,7 +5481,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -5761,7 +5761,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
